--- a/document/testcase/协议层流程测试-测试用例 .xlsx
+++ b/document/testcase/协议层流程测试-测试用例 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8985" tabRatio="459" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="459" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>X</t>
@@ -35,7 +34,6 @@
         <b/>
         <sz val="14"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XX</t>
@@ -45,7 +43,6 @@
         <b/>
         <sz val="14"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目系统测试用例</t>
@@ -62,7 +59,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>X</t>
@@ -71,7 +67,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XX</t>
@@ -80,7 +75,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目系统测试用例</t>
@@ -98,7 +92,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[</t>
@@ -108,7 +101,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -118,7 +110,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>] 草   稿</t>
@@ -136,7 +127,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">作 </t>
@@ -146,7 +136,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
@@ -156,7 +145,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>者</t>
@@ -277,102 +265,54 @@
     <t>各项汇总</t>
   </si>
   <si>
+    <t>功能测试-流程测试（其实这不是严格的测试用例，这个简化版只是把测试流程的操作步骤大概纪录一下，保持在我自己能看懂的程度）</t>
+  </si>
+  <si>
     <t>zh-01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>新建账号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>创建新的账号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击"create new account"按钮
+2.在输入框中输入密码
+3.重复步骤1-2，5次，无特殊要求</t>
   </si>
   <si>
     <t>1.界面显示出新建的账户
 2.数据库中出现该账户信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部5次测试通过，视为用例测试通过</t>
   </si>
   <si>
     <t>zh-02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>用户登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>选择账户，登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1.选择账户
 2.点击"login"按钮
 3.输入密码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面跳转（至主界面）</t>
   </si>
   <si>
     <t>zh-03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>验证者注册</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>注册成为验证者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面跳转（至主界面）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部3次测试通过，视为用例测试通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部5次测试通过，视为用例测试通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家发布新数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有用户接收到发布事件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>预购买数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家预购买数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部3次测试通过、所有用户接收到发布事件，视为用例测试通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一个账户作为卖家，登录
-2.点击主界面的"Publish new data"按钮
-3.输入测试数据，发布
-4.重复步骤1-3，2次：分别选择支持/不支持验证</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1.选择账户，登录
@@ -380,230 +320,209 @@
 3.点击"Register as verifier"按钮
 4.输入密码
 5.重复步骤1-4，3次：使用不同账户</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击"create new account"按钮
-2.在输入框中输入密码
-3.重复步骤1-2，5次，无特殊要求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证条件交叉匹配：{支持/不支持验证}、{启动/不启动验证}交叉匹配的4种情况</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.验证条件交叉匹配结果符合预期
-2.产生8条交易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消购买</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家在不同验证人数的情况下确认购买</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家在不同验证人数的情况下取消购买</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一条“进入验证流程的交易”
-，"Purchase"
-2.重复步骤1，3次：purchase前已验证人数分别为{0,1,2}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>非验证流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易未进入验证流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一条“进入验证流程的交易”
-，"Cancel"
-2.重复步骤1，4次：Cancel前已验证人数分别为{0,1,2}和已purchase</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一条“未进入验证流程的交易”，"Purchase"
-2.选择一条“未进入验证流程的交易”，"Cancel"
-3.选择一条“未进入验证流程且已'purchase'的交易”，"Cancel"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>再加密数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家将“使用自己的公钥加密”的数据解密，并使用买家公钥重新加密</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易正确进入"ready for download"状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易正确进入相应状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>解密数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家解密卖家重新加密的数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一条状态为"buying"的交易，"reencrypt"
-2.重复步骤1，2次：分别选择进入/未进入验证流程的交易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一条状态为"ready for download"的交易，"decrypt"
-2.重复步骤1，2次：无特殊要求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态不变，买家得到原始数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲裁流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易正确进入仲裁流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>非仲裁流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家认为原始数据为真，交易不进入仲裁流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家认为原始数据为假，交易自动进入仲裁流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价验证者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家评价验证者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价正确进入处理流程，验证者在被取消资格时收到事件通知</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.在"Voted"及其后的每一个状态对验证者进行评价(6)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部6次测试通过，视为用例测试通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.得到三个包含键值对：
+"isVerifier = true"
+的账户
+2.账户余额相应减少</t>
+  </si>
+  <si>
+    <t>全部3次测试通过，视为用例测试通过</t>
+  </si>
+  <si>
+    <t>gnlc-01</t>
+  </si>
+  <si>
+    <t>发布数据</t>
+  </si>
+  <si>
+    <t>卖家发布新数据</t>
+  </si>
+  <si>
+    <t>1.选择一个账户作为卖家，登录
+2.点击主界面的"Publish new data"按钮
+3.输入测试数据，发布
+4.重复步骤1-3，2次：分别选择支持/不支持验证</t>
+  </si>
+  <si>
+    <t>所有用户接收到发布事件</t>
+  </si>
+  <si>
+    <t>全部3次测试通过、所有用户接收到发布事件，视为用例测试通过</t>
+  </si>
+  <si>
+    <t>gnlc-02</t>
+  </si>
+  <si>
+    <t>预购买数据</t>
+  </si>
+  <si>
+    <t>买家预购买数据</t>
   </si>
   <si>
     <t>1.选择一个账户作为买家，登录
 2.点击主界面的"Transaction-buy"按钮
 3.选择一条数据，"buy"
 4.重复步骤1-3，10次：进入验证流程的交易7条、未进入验证流程的交易3条</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能未实现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能测试-流程测试（其实这不是严格的测试用例，这个简化版只是把测试流程的操作步骤大概纪录一下，保持在我自己能看懂的程度）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验证条件交叉匹配结果符合预期
+2.产生8条交易</t>
+  </si>
+  <si>
+    <t>验证条件交叉匹配：{支持/不支持验证}、{启动/不启动验证}交叉匹配的4种情况</t>
   </si>
   <si>
     <t>gnlc-03-01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证流程</t>
+  </si>
+  <si>
+    <t>买家在不同验证人数的情况下确认购买</t>
+  </si>
+  <si>
+    <t>1.选择一条“进入验证流程的交易”
+，"Purchase"
+2.重复步骤1，3次：purchase前已验证人数分别为{0,1,2}</t>
+  </si>
+  <si>
+    <t>1.交易会正确进行到"Buying"状态
+2.所有验证者会接收到purchase事件，通知其不可再验证
+3."Vote"和"Purchase"只会有一个成功执行，这取决于智能合约的执行顺序
+4.验证者可以重复验证，但只会获得一次奖励</t>
   </si>
   <si>
     <t>gnlc-03-02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-03-03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-05</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-06-01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-06-02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnlc-07</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.得到三个包含键值对：
-"isVerifier = true"
-的账户
-2.账户余额相应减少</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消购买</t>
+  </si>
+  <si>
+    <t>买家在不同验证人数的情况下取消购买</t>
+  </si>
+  <si>
+    <t>1.选择一条“进入验证流程的交易”
+，"Cancel"
+2.重复步骤1，4次：Cancel前已验证人数分别为{0,1,2}和已purchase</t>
   </si>
   <si>
     <t>1.交易会被正确取消
 2.所有验证者会收到取消事件，通知其不可再验证
 3."Vote"和"Cancel"只会有一个成功执行，这取决于智能合约的执行顺序
 4.取消购买后，买家收到返还的代币，注意关注已验证人数和买家收到的代币数的对应关系</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.交易会正确进行到"Buying"状态
-2.所有验证者会接收到purchase事件，通知其不可再验证
-3."Vote"和"Purchase"只会有一个成功执行，这取决于智能合约的执行顺序
-4.验证者可以重复验证，但只会获得一次奖励</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnlc-03-03</t>
+  </si>
+  <si>
+    <t>非验证流程</t>
+  </si>
+  <si>
+    <t>交易未进入验证流程</t>
+  </si>
+  <si>
+    <t>1.选择一条“未进入验证流程的交易”，"Purchase"
+2.选择一条“未进入验证流程的交易”，"Cancel"
+3.选择一条“未进入验证流程且已'purchase'的交易”，"Cancel"</t>
+  </si>
+  <si>
+    <t>交易正确进入相应状态</t>
+  </si>
+  <si>
+    <t>gnlc-04</t>
+  </si>
+  <si>
+    <t>再加密数据</t>
+  </si>
+  <si>
+    <t>卖家将“使用自己的公钥加密”的数据解密，并使用买家公钥重新加密</t>
+  </si>
+  <si>
+    <t>1.选择一条状态为"buying"的交易，"reencrypt"
+2.重复步骤1，2次：分别选择进入/未进入验证流程的交易</t>
+  </si>
+  <si>
+    <t>交易正确进入"ready for download"状态</t>
+  </si>
+  <si>
+    <t>gnlc-05</t>
+  </si>
+  <si>
+    <t>解密数据</t>
+  </si>
+  <si>
+    <t>买家解密卖家重新加密的数据</t>
+  </si>
+  <si>
+    <t>1.选择一条状态为"ready for download"的交易，"decrypt"
+2.重复步骤1，2次：无特殊要求</t>
+  </si>
+  <si>
+    <t>交易状态不变，买家得到原始数据</t>
+  </si>
+  <si>
+    <t>gnlc-06-01</t>
+  </si>
+  <si>
+    <t>仲裁流程</t>
+  </si>
+  <si>
+    <t>买家认为原始数据为假，交易自动进入仲裁流程</t>
   </si>
   <si>
     <t>1.选择一条gnlc-05产生的数据，"confirm"：fake</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易正确进入仲裁流程</t>
+  </si>
+  <si>
+    <t>gnlc-06-02</t>
+  </si>
+  <si>
+    <t>非仲裁流程</t>
+  </si>
+  <si>
+    <t>买家认为原始数据为真，交易不进入仲裁流程</t>
   </si>
   <si>
     <t>1.选择一条gnlc-05产生的数据，"confirm"：true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1.交易正确关闭
 2.卖家收到货款</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnlc-07</t>
+  </si>
+  <si>
+    <t>评价验证者</t>
+  </si>
+  <si>
+    <t>买家评价验证者</t>
+  </si>
+  <si>
+    <t>1.在"Voted"及其后的每一个状态对验证者进行评价(6)</t>
+  </si>
+  <si>
+    <t>评价正确进入处理流程，验证者在被取消资格时收到事件通知</t>
+  </si>
+  <si>
+    <t>全部6次测试通过，视为用例测试通过</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -613,83 +532,217 @@
       <sz val="10"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +779,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1175,8 +1414,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="562">
+  <cellStyleXfs count="610">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,451 +1529,595 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2864,7 +3345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2872,6 +3353,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,19 +3366,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2915,17 +3408,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="124" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2939,127 +3456,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3068,7 +3537,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3077,625 +3552,673 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="562">
+  <cellStyles count="610">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="62"/>
-    <cellStyle name="常规 11" xfId="66"/>
-    <cellStyle name="常规 12" xfId="32"/>
-    <cellStyle name="常规 13" xfId="68"/>
-    <cellStyle name="常规 14" xfId="71"/>
-    <cellStyle name="常规 15" xfId="73"/>
-    <cellStyle name="常规 16" xfId="76"/>
-    <cellStyle name="常规 17" xfId="79"/>
-    <cellStyle name="常规 18" xfId="64"/>
-    <cellStyle name="常规 19" xfId="81"/>
-    <cellStyle name="常规 2" xfId="82"/>
-    <cellStyle name="常规 2 10" xfId="83"/>
-    <cellStyle name="常规 2 11" xfId="84"/>
-    <cellStyle name="常规 2 12" xfId="85"/>
-    <cellStyle name="常规 2 2" xfId="86"/>
-    <cellStyle name="常规 2 3" xfId="63"/>
-    <cellStyle name="常规 2 4" xfId="67"/>
-    <cellStyle name="常规 2 5" xfId="33"/>
-    <cellStyle name="常规 2 6" xfId="69"/>
-    <cellStyle name="常规 2 7" xfId="70"/>
-    <cellStyle name="常规 2 8" xfId="74"/>
-    <cellStyle name="常规 2 9" xfId="77"/>
-    <cellStyle name="常规 20" xfId="72"/>
-    <cellStyle name="常规 21" xfId="75"/>
-    <cellStyle name="常规 22" xfId="78"/>
-    <cellStyle name="常规 23" xfId="65"/>
-    <cellStyle name="常规 24" xfId="80"/>
-    <cellStyle name="常规 25" xfId="30"/>
-    <cellStyle name="常规 26" xfId="37"/>
-    <cellStyle name="常规 27" xfId="88"/>
-    <cellStyle name="常规 28" xfId="90"/>
-    <cellStyle name="常规 29" xfId="92"/>
-    <cellStyle name="常规 3" xfId="93"/>
-    <cellStyle name="常规 30" xfId="31"/>
-    <cellStyle name="常规 31" xfId="36"/>
-    <cellStyle name="常规 32" xfId="87"/>
-    <cellStyle name="常规 33" xfId="89"/>
-    <cellStyle name="常规 34" xfId="91"/>
-    <cellStyle name="常规 35" xfId="95"/>
-    <cellStyle name="常规 36" xfId="97"/>
-    <cellStyle name="常规 37" xfId="99"/>
-    <cellStyle name="常规 38" xfId="101"/>
-    <cellStyle name="常规 39" xfId="8"/>
-    <cellStyle name="常规 4" xfId="102"/>
-    <cellStyle name="常规 40" xfId="94"/>
-    <cellStyle name="常规 41" xfId="96"/>
-    <cellStyle name="常规 42" xfId="98"/>
-    <cellStyle name="常规 43" xfId="100"/>
-    <cellStyle name="常规 44" xfId="7"/>
-    <cellStyle name="常规 45" xfId="103"/>
-    <cellStyle name="常规 46" xfId="105"/>
-    <cellStyle name="常规 47" xfId="107"/>
-    <cellStyle name="常规 48" xfId="109"/>
-    <cellStyle name="常规 49" xfId="111"/>
-    <cellStyle name="常规 5" xfId="113"/>
-    <cellStyle name="常规 50" xfId="104"/>
-    <cellStyle name="常规 51" xfId="106"/>
-    <cellStyle name="常规 52" xfId="108"/>
-    <cellStyle name="常规 53" xfId="110"/>
-    <cellStyle name="常规 54" xfId="112"/>
-    <cellStyle name="常规 55" xfId="114"/>
-    <cellStyle name="常规 56" xfId="116"/>
-    <cellStyle name="常规 57" xfId="118"/>
-    <cellStyle name="常规 58" xfId="120"/>
-    <cellStyle name="常规 59" xfId="122"/>
-    <cellStyle name="常规 6" xfId="21"/>
-    <cellStyle name="常规 60" xfId="115"/>
-    <cellStyle name="常规 61" xfId="117"/>
-    <cellStyle name="常规 62" xfId="119"/>
-    <cellStyle name="常规 63" xfId="121"/>
-    <cellStyle name="常规 64" xfId="123"/>
-    <cellStyle name="常规 65" xfId="124"/>
-    <cellStyle name="常规 66" xfId="126"/>
-    <cellStyle name="常规 67" xfId="128"/>
-    <cellStyle name="常规 68" xfId="130"/>
-    <cellStyle name="常规 69" xfId="132"/>
-    <cellStyle name="常规 7" xfId="134"/>
-    <cellStyle name="常规 70" xfId="125"/>
-    <cellStyle name="常规 71" xfId="127"/>
-    <cellStyle name="常规 72" xfId="129"/>
-    <cellStyle name="常规 73" xfId="131"/>
-    <cellStyle name="常规 74" xfId="133"/>
-    <cellStyle name="常规 75" xfId="135"/>
-    <cellStyle name="常规 76" xfId="137"/>
-    <cellStyle name="常规 77" xfId="139"/>
-    <cellStyle name="常规 78" xfId="141"/>
-    <cellStyle name="常规 79" xfId="143"/>
-    <cellStyle name="常规 8" xfId="145"/>
-    <cellStyle name="常规 80" xfId="136"/>
-    <cellStyle name="常规 81" xfId="138"/>
-    <cellStyle name="常规 82" xfId="140"/>
-    <cellStyle name="常规 83" xfId="142"/>
-    <cellStyle name="常规 84" xfId="144"/>
-    <cellStyle name="常规 85" xfId="34"/>
-    <cellStyle name="常规 86" xfId="146"/>
-    <cellStyle name="常规 87" xfId="148"/>
-    <cellStyle name="常规 88" xfId="150"/>
-    <cellStyle name="常规 89" xfId="152"/>
-    <cellStyle name="常规 9" xfId="154"/>
-    <cellStyle name="常规 90" xfId="35"/>
-    <cellStyle name="常规 91" xfId="147"/>
-    <cellStyle name="常规 92" xfId="149"/>
-    <cellStyle name="常规 93" xfId="151"/>
-    <cellStyle name="常规 94" xfId="153"/>
-    <cellStyle name="常规 95" xfId="155"/>
-    <cellStyle name="样式 1" xfId="156"/>
-    <cellStyle name="样式 10" xfId="157"/>
-    <cellStyle name="样式 100" xfId="162"/>
-    <cellStyle name="样式 101" xfId="163"/>
-    <cellStyle name="样式 102" xfId="164"/>
-    <cellStyle name="样式 103" xfId="165"/>
-    <cellStyle name="样式 104" xfId="166"/>
-    <cellStyle name="样式 105" xfId="167"/>
-    <cellStyle name="样式 106" xfId="169"/>
-    <cellStyle name="样式 107" xfId="171"/>
-    <cellStyle name="样式 108" xfId="173"/>
-    <cellStyle name="样式 109" xfId="175"/>
-    <cellStyle name="样式 11" xfId="177"/>
-    <cellStyle name="样式 110" xfId="168"/>
-    <cellStyle name="样式 111" xfId="170"/>
-    <cellStyle name="样式 112" xfId="172"/>
-    <cellStyle name="样式 113" xfId="174"/>
-    <cellStyle name="样式 114" xfId="176"/>
-    <cellStyle name="样式 115" xfId="182"/>
-    <cellStyle name="样式 116" xfId="184"/>
-    <cellStyle name="样式 117" xfId="186"/>
-    <cellStyle name="样式 118" xfId="19"/>
-    <cellStyle name="样式 119" xfId="188"/>
-    <cellStyle name="样式 12" xfId="190"/>
-    <cellStyle name="样式 120" xfId="183"/>
-    <cellStyle name="样式 121" xfId="185"/>
-    <cellStyle name="样式 122" xfId="187"/>
-    <cellStyle name="样式 123" xfId="20"/>
-    <cellStyle name="样式 124" xfId="189"/>
-    <cellStyle name="样式 125" xfId="195"/>
-    <cellStyle name="样式 126" xfId="197"/>
-    <cellStyle name="样式 127" xfId="199"/>
-    <cellStyle name="样式 128" xfId="201"/>
-    <cellStyle name="样式 129" xfId="203"/>
-    <cellStyle name="样式 13" xfId="205"/>
-    <cellStyle name="样式 130" xfId="196"/>
-    <cellStyle name="样式 131" xfId="198"/>
-    <cellStyle name="样式 132" xfId="200"/>
-    <cellStyle name="样式 133" xfId="202"/>
-    <cellStyle name="样式 134" xfId="204"/>
-    <cellStyle name="样式 135" xfId="210"/>
-    <cellStyle name="样式 136" xfId="212"/>
-    <cellStyle name="样式 137" xfId="214"/>
-    <cellStyle name="样式 138" xfId="216"/>
-    <cellStyle name="样式 139" xfId="218"/>
-    <cellStyle name="样式 14" xfId="220"/>
-    <cellStyle name="样式 140" xfId="211"/>
-    <cellStyle name="样式 141" xfId="213"/>
-    <cellStyle name="样式 142" xfId="215"/>
-    <cellStyle name="样式 143" xfId="217"/>
-    <cellStyle name="样式 144" xfId="219"/>
-    <cellStyle name="样式 145" xfId="225"/>
-    <cellStyle name="样式 146" xfId="228"/>
-    <cellStyle name="样式 147" xfId="231"/>
-    <cellStyle name="样式 148" xfId="234"/>
-    <cellStyle name="样式 149" xfId="237"/>
-    <cellStyle name="样式 15" xfId="1"/>
-    <cellStyle name="样式 150" xfId="226"/>
-    <cellStyle name="样式 151" xfId="229"/>
-    <cellStyle name="样式 152" xfId="232"/>
-    <cellStyle name="样式 153" xfId="235"/>
-    <cellStyle name="样式 154" xfId="238"/>
-    <cellStyle name="样式 155" xfId="240"/>
-    <cellStyle name="样式 156" xfId="244"/>
-    <cellStyle name="样式 157" xfId="248"/>
-    <cellStyle name="样式 158" xfId="252"/>
-    <cellStyle name="样式 159" xfId="256"/>
-    <cellStyle name="样式 16" xfId="260"/>
-    <cellStyle name="样式 160" xfId="241"/>
-    <cellStyle name="样式 161" xfId="245"/>
-    <cellStyle name="样式 162" xfId="249"/>
-    <cellStyle name="样式 163" xfId="253"/>
-    <cellStyle name="样式 164" xfId="257"/>
-    <cellStyle name="样式 165" xfId="266"/>
-    <cellStyle name="样式 166" xfId="270"/>
-    <cellStyle name="样式 167" xfId="274"/>
-    <cellStyle name="样式 168" xfId="278"/>
-    <cellStyle name="样式 169" xfId="282"/>
-    <cellStyle name="样式 17" xfId="286"/>
-    <cellStyle name="样式 170" xfId="267"/>
-    <cellStyle name="样式 171" xfId="271"/>
-    <cellStyle name="样式 172" xfId="275"/>
-    <cellStyle name="样式 173" xfId="279"/>
-    <cellStyle name="样式 174" xfId="283"/>
-    <cellStyle name="样式 175" xfId="292"/>
-    <cellStyle name="样式 176" xfId="296"/>
-    <cellStyle name="样式 177" xfId="300"/>
-    <cellStyle name="样式 178" xfId="304"/>
-    <cellStyle name="样式 179" xfId="308"/>
-    <cellStyle name="样式 18" xfId="312"/>
-    <cellStyle name="样式 180" xfId="293"/>
-    <cellStyle name="样式 181" xfId="297"/>
-    <cellStyle name="样式 182" xfId="301"/>
-    <cellStyle name="样式 183" xfId="305"/>
-    <cellStyle name="样式 184" xfId="309"/>
-    <cellStyle name="样式 185" xfId="318"/>
-    <cellStyle name="样式 186" xfId="322"/>
-    <cellStyle name="样式 187" xfId="326"/>
-    <cellStyle name="样式 188" xfId="29"/>
-    <cellStyle name="样式 189" xfId="330"/>
-    <cellStyle name="样式 19" xfId="334"/>
-    <cellStyle name="样式 190" xfId="319"/>
-    <cellStyle name="样式 191" xfId="323"/>
-    <cellStyle name="样式 192" xfId="327"/>
-    <cellStyle name="样式 193" xfId="28"/>
-    <cellStyle name="样式 194" xfId="331"/>
-    <cellStyle name="样式 195" xfId="340"/>
-    <cellStyle name="样式 196" xfId="344"/>
-    <cellStyle name="样式 197" xfId="348"/>
-    <cellStyle name="样式 198" xfId="352"/>
-    <cellStyle name="样式 199" xfId="356"/>
-    <cellStyle name="样式 2" xfId="360"/>
-    <cellStyle name="样式 20" xfId="2"/>
-    <cellStyle name="样式 200" xfId="227"/>
-    <cellStyle name="样式 201" xfId="230"/>
-    <cellStyle name="样式 202" xfId="233"/>
-    <cellStyle name="样式 203" xfId="236"/>
-    <cellStyle name="样式 204" xfId="239"/>
-    <cellStyle name="样式 205" xfId="242"/>
-    <cellStyle name="样式 206" xfId="246"/>
-    <cellStyle name="样式 207" xfId="250"/>
-    <cellStyle name="样式 208" xfId="254"/>
-    <cellStyle name="样式 209" xfId="258"/>
-    <cellStyle name="样式 21" xfId="261"/>
-    <cellStyle name="样式 210" xfId="243"/>
-    <cellStyle name="样式 211" xfId="247"/>
-    <cellStyle name="样式 212" xfId="251"/>
-    <cellStyle name="样式 213" xfId="255"/>
-    <cellStyle name="样式 214" xfId="259"/>
-    <cellStyle name="样式 215" xfId="268"/>
-    <cellStyle name="样式 216" xfId="272"/>
-    <cellStyle name="样式 217" xfId="276"/>
-    <cellStyle name="样式 218" xfId="280"/>
-    <cellStyle name="样式 219" xfId="284"/>
-    <cellStyle name="样式 22" xfId="287"/>
-    <cellStyle name="样式 220" xfId="269"/>
-    <cellStyle name="样式 221" xfId="273"/>
-    <cellStyle name="样式 222" xfId="277"/>
-    <cellStyle name="样式 223" xfId="281"/>
-    <cellStyle name="样式 224" xfId="285"/>
-    <cellStyle name="样式 225" xfId="294"/>
-    <cellStyle name="样式 226" xfId="298"/>
-    <cellStyle name="样式 227" xfId="302"/>
-    <cellStyle name="样式 228" xfId="306"/>
-    <cellStyle name="样式 229" xfId="310"/>
-    <cellStyle name="样式 23" xfId="313"/>
-    <cellStyle name="样式 230" xfId="295"/>
-    <cellStyle name="样式 231" xfId="299"/>
-    <cellStyle name="样式 232" xfId="303"/>
-    <cellStyle name="样式 233" xfId="307"/>
-    <cellStyle name="样式 234" xfId="311"/>
-    <cellStyle name="样式 235" xfId="320"/>
-    <cellStyle name="样式 236" xfId="324"/>
-    <cellStyle name="样式 237" xfId="328"/>
-    <cellStyle name="样式 238" xfId="27"/>
-    <cellStyle name="样式 239" xfId="332"/>
-    <cellStyle name="样式 24" xfId="335"/>
-    <cellStyle name="样式 240" xfId="321"/>
-    <cellStyle name="样式 241" xfId="325"/>
-    <cellStyle name="样式 242" xfId="329"/>
-    <cellStyle name="样式 243" xfId="26"/>
-    <cellStyle name="样式 244" xfId="333"/>
-    <cellStyle name="样式 245" xfId="341"/>
-    <cellStyle name="样式 246" xfId="345"/>
-    <cellStyle name="样式 247" xfId="349"/>
-    <cellStyle name="样式 248" xfId="353"/>
-    <cellStyle name="样式 249" xfId="357"/>
-    <cellStyle name="样式 25" xfId="361"/>
-    <cellStyle name="样式 250" xfId="342"/>
-    <cellStyle name="样式 251" xfId="346"/>
-    <cellStyle name="样式 252" xfId="350"/>
-    <cellStyle name="样式 253" xfId="354"/>
-    <cellStyle name="样式 254" xfId="358"/>
-    <cellStyle name="样式 255" xfId="367"/>
-    <cellStyle name="样式 256" xfId="371"/>
-    <cellStyle name="样式 257" xfId="375"/>
-    <cellStyle name="样式 258" xfId="379"/>
-    <cellStyle name="样式 259" xfId="42"/>
-    <cellStyle name="样式 26" xfId="383"/>
-    <cellStyle name="样式 260" xfId="368"/>
-    <cellStyle name="样式 261" xfId="372"/>
-    <cellStyle name="样式 262" xfId="376"/>
-    <cellStyle name="样式 263" xfId="380"/>
-    <cellStyle name="样式 264" xfId="43"/>
-    <cellStyle name="样式 265" xfId="38"/>
-    <cellStyle name="样式 266" xfId="46"/>
-    <cellStyle name="样式 267" xfId="50"/>
-    <cellStyle name="样式 268" xfId="54"/>
-    <cellStyle name="样式 269" xfId="58"/>
-    <cellStyle name="样式 27" xfId="389"/>
-    <cellStyle name="样式 270" xfId="39"/>
-    <cellStyle name="样式 271" xfId="47"/>
-    <cellStyle name="样式 272" xfId="51"/>
-    <cellStyle name="样式 273" xfId="55"/>
-    <cellStyle name="样式 274" xfId="59"/>
-    <cellStyle name="样式 275" xfId="395"/>
-    <cellStyle name="样式 276" xfId="399"/>
-    <cellStyle name="样式 277" xfId="403"/>
-    <cellStyle name="样式 278" xfId="407"/>
-    <cellStyle name="样式 279" xfId="411"/>
-    <cellStyle name="样式 28" xfId="415"/>
-    <cellStyle name="样式 280" xfId="396"/>
-    <cellStyle name="样式 281" xfId="400"/>
-    <cellStyle name="样式 282" xfId="404"/>
-    <cellStyle name="样式 283" xfId="408"/>
-    <cellStyle name="样式 284" xfId="412"/>
-    <cellStyle name="样式 285" xfId="421"/>
-    <cellStyle name="样式 286" xfId="425"/>
-    <cellStyle name="样式 287" xfId="429"/>
-    <cellStyle name="样式 288" xfId="433"/>
-    <cellStyle name="样式 289" xfId="437"/>
-    <cellStyle name="样式 29" xfId="441"/>
-    <cellStyle name="样式 290" xfId="422"/>
-    <cellStyle name="样式 291" xfId="426"/>
-    <cellStyle name="样式 292" xfId="430"/>
-    <cellStyle name="样式 293" xfId="434"/>
-    <cellStyle name="样式 294" xfId="438"/>
-    <cellStyle name="样式 295" xfId="447"/>
-    <cellStyle name="样式 296" xfId="22"/>
-    <cellStyle name="样式 297" xfId="451"/>
-    <cellStyle name="样式 298" xfId="455"/>
-    <cellStyle name="样式 299" xfId="459"/>
-    <cellStyle name="样式 3" xfId="463"/>
-    <cellStyle name="样式 30" xfId="362"/>
-    <cellStyle name="样式 300" xfId="343"/>
-    <cellStyle name="样式 301" xfId="347"/>
-    <cellStyle name="样式 302" xfId="351"/>
-    <cellStyle name="样式 303" xfId="355"/>
-    <cellStyle name="样式 304" xfId="359"/>
-    <cellStyle name="样式 305" xfId="369"/>
-    <cellStyle name="样式 306" xfId="373"/>
-    <cellStyle name="样式 307" xfId="377"/>
-    <cellStyle name="样式 308" xfId="381"/>
-    <cellStyle name="样式 309" xfId="44"/>
-    <cellStyle name="样式 31" xfId="384"/>
-    <cellStyle name="样式 310" xfId="370"/>
-    <cellStyle name="样式 311" xfId="374"/>
-    <cellStyle name="样式 312" xfId="378"/>
-    <cellStyle name="样式 313" xfId="382"/>
-    <cellStyle name="样式 314" xfId="45"/>
-    <cellStyle name="样式 315" xfId="40"/>
-    <cellStyle name="样式 316" xfId="48"/>
-    <cellStyle name="样式 317" xfId="52"/>
-    <cellStyle name="样式 318" xfId="56"/>
-    <cellStyle name="样式 319" xfId="60"/>
-    <cellStyle name="样式 32" xfId="390"/>
-    <cellStyle name="样式 320" xfId="41"/>
-    <cellStyle name="样式 321" xfId="49"/>
-    <cellStyle name="样式 322" xfId="53"/>
-    <cellStyle name="样式 323" xfId="57"/>
-    <cellStyle name="样式 324" xfId="61"/>
-    <cellStyle name="样式 325" xfId="397"/>
-    <cellStyle name="样式 326" xfId="401"/>
-    <cellStyle name="样式 327" xfId="405"/>
-    <cellStyle name="样式 328" xfId="409"/>
-    <cellStyle name="样式 329" xfId="413"/>
-    <cellStyle name="样式 33" xfId="416"/>
-    <cellStyle name="样式 330" xfId="398"/>
-    <cellStyle name="样式 331" xfId="402"/>
-    <cellStyle name="样式 332" xfId="406"/>
-    <cellStyle name="样式 333" xfId="410"/>
-    <cellStyle name="样式 334" xfId="414"/>
-    <cellStyle name="样式 335" xfId="423"/>
-    <cellStyle name="样式 336" xfId="427"/>
-    <cellStyle name="样式 337" xfId="431"/>
-    <cellStyle name="样式 338" xfId="435"/>
-    <cellStyle name="样式 339" xfId="439"/>
-    <cellStyle name="样式 34" xfId="442"/>
-    <cellStyle name="样式 340" xfId="424"/>
-    <cellStyle name="样式 341" xfId="428"/>
-    <cellStyle name="样式 342" xfId="432"/>
-    <cellStyle name="样式 343" xfId="436"/>
-    <cellStyle name="样式 344" xfId="440"/>
-    <cellStyle name="样式 345" xfId="448"/>
-    <cellStyle name="样式 346" xfId="23"/>
-    <cellStyle name="样式 347" xfId="452"/>
-    <cellStyle name="样式 348" xfId="456"/>
-    <cellStyle name="样式 349" xfId="460"/>
-    <cellStyle name="样式 35" xfId="13"/>
-    <cellStyle name="样式 350" xfId="449"/>
-    <cellStyle name="样式 351" xfId="24"/>
-    <cellStyle name="样式 352" xfId="453"/>
-    <cellStyle name="样式 353" xfId="457"/>
-    <cellStyle name="样式 354" xfId="461"/>
-    <cellStyle name="样式 355" xfId="464"/>
-    <cellStyle name="样式 356" xfId="12"/>
-    <cellStyle name="样式 357" xfId="471"/>
-    <cellStyle name="样式 358" xfId="475"/>
-    <cellStyle name="样式 359" xfId="158"/>
-    <cellStyle name="样式 36" xfId="480"/>
-    <cellStyle name="样式 360" xfId="465"/>
-    <cellStyle name="样式 361" xfId="11"/>
-    <cellStyle name="样式 362" xfId="470"/>
-    <cellStyle name="样式 363" xfId="474"/>
-    <cellStyle name="样式 364" xfId="159"/>
-    <cellStyle name="样式 365" xfId="178"/>
-    <cellStyle name="样式 366" xfId="191"/>
-    <cellStyle name="样式 367" xfId="206"/>
-    <cellStyle name="样式 368" xfId="221"/>
-    <cellStyle name="样式 369" xfId="3"/>
-    <cellStyle name="样式 37" xfId="485"/>
-    <cellStyle name="样式 370" xfId="179"/>
-    <cellStyle name="样式 371" xfId="192"/>
-    <cellStyle name="样式 372" xfId="207"/>
-    <cellStyle name="样式 373" xfId="222"/>
-    <cellStyle name="样式 374" xfId="4"/>
-    <cellStyle name="样式 375" xfId="262"/>
-    <cellStyle name="样式 376" xfId="288"/>
-    <cellStyle name="样式 377" xfId="314"/>
-    <cellStyle name="样式 378" xfId="336"/>
-    <cellStyle name="样式 379" xfId="363"/>
-    <cellStyle name="样式 38" xfId="487"/>
-    <cellStyle name="样式 380" xfId="263"/>
-    <cellStyle name="样式 381" xfId="289"/>
-    <cellStyle name="样式 382" xfId="315"/>
-    <cellStyle name="样式 383" xfId="337"/>
-    <cellStyle name="样式 384" xfId="364"/>
-    <cellStyle name="样式 385" xfId="385"/>
-    <cellStyle name="样式 386" xfId="391"/>
-    <cellStyle name="样式 387" xfId="417"/>
-    <cellStyle name="样式 388" xfId="443"/>
-    <cellStyle name="样式 389" xfId="15"/>
-    <cellStyle name="样式 39" xfId="492"/>
-    <cellStyle name="样式 390" xfId="386"/>
-    <cellStyle name="样式 391" xfId="392"/>
-    <cellStyle name="样式 392" xfId="418"/>
-    <cellStyle name="样式 393" xfId="444"/>
-    <cellStyle name="样式 394" xfId="16"/>
-    <cellStyle name="样式 395" xfId="477"/>
-    <cellStyle name="样式 396" xfId="482"/>
-    <cellStyle name="样式 397" xfId="488"/>
-    <cellStyle name="样式 398" xfId="493"/>
-    <cellStyle name="样式 399" xfId="496"/>
-    <cellStyle name="样式 4" xfId="499"/>
-    <cellStyle name="样式 40" xfId="14"/>
-    <cellStyle name="样式 400" xfId="450"/>
-    <cellStyle name="样式 401" xfId="25"/>
-    <cellStyle name="样式 402" xfId="454"/>
-    <cellStyle name="样式 403" xfId="458"/>
-    <cellStyle name="样式 404" xfId="462"/>
-    <cellStyle name="样式 405" xfId="466"/>
-    <cellStyle name="样式 406" xfId="10"/>
-    <cellStyle name="样式 407" xfId="469"/>
-    <cellStyle name="样式 408" xfId="473"/>
-    <cellStyle name="样式 409" xfId="160"/>
-    <cellStyle name="样式 41" xfId="479"/>
-    <cellStyle name="样式 410" xfId="467"/>
-    <cellStyle name="样式 411" xfId="9"/>
-    <cellStyle name="样式 412" xfId="468"/>
-    <cellStyle name="样式 413" xfId="472"/>
-    <cellStyle name="样式 414" xfId="161"/>
-    <cellStyle name="样式 415" xfId="180"/>
-    <cellStyle name="样式 416" xfId="193"/>
-    <cellStyle name="样式 417" xfId="208"/>
-    <cellStyle name="样式 418" xfId="223"/>
-    <cellStyle name="样式 419" xfId="5"/>
-    <cellStyle name="样式 42" xfId="484"/>
-    <cellStyle name="样式 420" xfId="181"/>
-    <cellStyle name="样式 421" xfId="194"/>
-    <cellStyle name="样式 422" xfId="209"/>
-    <cellStyle name="样式 423" xfId="224"/>
-    <cellStyle name="样式 424" xfId="6"/>
-    <cellStyle name="样式 425" xfId="264"/>
-    <cellStyle name="样式 426" xfId="290"/>
-    <cellStyle name="样式 427" xfId="316"/>
-    <cellStyle name="样式 428" xfId="338"/>
-    <cellStyle name="样式 429" xfId="365"/>
-    <cellStyle name="样式 43" xfId="486"/>
-    <cellStyle name="样式 430" xfId="265"/>
-    <cellStyle name="样式 431" xfId="291"/>
-    <cellStyle name="样式 432" xfId="317"/>
-    <cellStyle name="样式 433" xfId="339"/>
-    <cellStyle name="样式 434" xfId="366"/>
-    <cellStyle name="样式 435" xfId="387"/>
-    <cellStyle name="样式 436" xfId="393"/>
-    <cellStyle name="样式 437" xfId="419"/>
-    <cellStyle name="样式 438" xfId="445"/>
-    <cellStyle name="样式 439" xfId="17"/>
-    <cellStyle name="样式 44" xfId="491"/>
-    <cellStyle name="样式 440" xfId="388"/>
-    <cellStyle name="样式 441" xfId="394"/>
-    <cellStyle name="样式 442" xfId="420"/>
-    <cellStyle name="样式 443" xfId="446"/>
-    <cellStyle name="样式 444" xfId="18"/>
-    <cellStyle name="样式 445" xfId="476"/>
-    <cellStyle name="样式 446" xfId="481"/>
-    <cellStyle name="样式 447" xfId="489"/>
-    <cellStyle name="样式 448" xfId="494"/>
-    <cellStyle name="样式 449" xfId="497"/>
-    <cellStyle name="样式 45" xfId="500"/>
-    <cellStyle name="样式 450" xfId="478"/>
-    <cellStyle name="样式 451" xfId="483"/>
-    <cellStyle name="样式 452" xfId="490"/>
-    <cellStyle name="样式 453" xfId="495"/>
-    <cellStyle name="样式 454" xfId="498"/>
-    <cellStyle name="样式 455" xfId="502"/>
-    <cellStyle name="样式 456" xfId="503"/>
-    <cellStyle name="样式 46" xfId="504"/>
-    <cellStyle name="样式 47" xfId="506"/>
-    <cellStyle name="样式 48" xfId="508"/>
-    <cellStyle name="样式 49" xfId="510"/>
-    <cellStyle name="样式 5" xfId="512"/>
-    <cellStyle name="样式 50" xfId="501"/>
-    <cellStyle name="样式 51" xfId="505"/>
-    <cellStyle name="样式 52" xfId="507"/>
-    <cellStyle name="样式 53" xfId="509"/>
-    <cellStyle name="样式 54" xfId="511"/>
-    <cellStyle name="样式 55" xfId="513"/>
-    <cellStyle name="样式 56" xfId="515"/>
-    <cellStyle name="样式 57" xfId="517"/>
-    <cellStyle name="样式 58" xfId="519"/>
-    <cellStyle name="样式 59" xfId="521"/>
-    <cellStyle name="样式 6" xfId="523"/>
-    <cellStyle name="样式 60" xfId="514"/>
-    <cellStyle name="样式 61" xfId="516"/>
-    <cellStyle name="样式 62" xfId="518"/>
-    <cellStyle name="样式 63" xfId="520"/>
-    <cellStyle name="样式 64" xfId="522"/>
-    <cellStyle name="样式 65" xfId="524"/>
-    <cellStyle name="样式 66" xfId="526"/>
-    <cellStyle name="样式 67" xfId="528"/>
-    <cellStyle name="样式 68" xfId="530"/>
-    <cellStyle name="样式 69" xfId="532"/>
-    <cellStyle name="样式 7" xfId="534"/>
-    <cellStyle name="样式 70" xfId="525"/>
-    <cellStyle name="样式 71" xfId="527"/>
-    <cellStyle name="样式 72" xfId="529"/>
-    <cellStyle name="样式 73" xfId="531"/>
-    <cellStyle name="样式 74" xfId="533"/>
-    <cellStyle name="样式 75" xfId="535"/>
-    <cellStyle name="样式 76" xfId="537"/>
-    <cellStyle name="样式 77" xfId="539"/>
-    <cellStyle name="样式 78" xfId="541"/>
-    <cellStyle name="样式 79" xfId="543"/>
-    <cellStyle name="样式 8" xfId="545"/>
-    <cellStyle name="样式 80" xfId="536"/>
-    <cellStyle name="样式 81" xfId="538"/>
-    <cellStyle name="样式 82" xfId="540"/>
-    <cellStyle name="样式 83" xfId="542"/>
-    <cellStyle name="样式 84" xfId="544"/>
-    <cellStyle name="样式 85" xfId="546"/>
-    <cellStyle name="样式 86" xfId="548"/>
-    <cellStyle name="样式 87" xfId="550"/>
-    <cellStyle name="样式 88" xfId="552"/>
-    <cellStyle name="样式 89" xfId="554"/>
-    <cellStyle name="样式 9" xfId="556"/>
-    <cellStyle name="样式 90" xfId="547"/>
-    <cellStyle name="样式 91" xfId="549"/>
-    <cellStyle name="样式 92" xfId="551"/>
-    <cellStyle name="样式 93" xfId="553"/>
-    <cellStyle name="样式 94" xfId="555"/>
-    <cellStyle name="样式 95" xfId="557"/>
-    <cellStyle name="样式 96" xfId="558"/>
-    <cellStyle name="样式 97" xfId="559"/>
-    <cellStyle name="样式 98" xfId="560"/>
-    <cellStyle name="样式 99" xfId="561"/>
+    <cellStyle name="样式 424" xfId="1"/>
+    <cellStyle name="样式 369" xfId="2"/>
+    <cellStyle name="样式 374" xfId="3"/>
+    <cellStyle name="样式 419" xfId="4"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="样式 15" xfId="6"/>
+    <cellStyle name="样式 20" xfId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
+    <cellStyle name="输入" xfId="9" builtinId="20"/>
+    <cellStyle name="货币" xfId="10" builtinId="4"/>
+    <cellStyle name="常规 39" xfId="11"/>
+    <cellStyle name="常规 44" xfId="12"/>
+    <cellStyle name="常规 2 11" xfId="13"/>
+    <cellStyle name="样式 356" xfId="14"/>
+    <cellStyle name="样式 361" xfId="15"/>
+    <cellStyle name="样式 406" xfId="16"/>
+    <cellStyle name="样式 411" xfId="17"/>
+    <cellStyle name="千位分隔[0]" xfId="18" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
+    <cellStyle name="差" xfId="20" builtinId="27"/>
+    <cellStyle name="样式 35" xfId="21"/>
+    <cellStyle name="样式 40" xfId="22"/>
+    <cellStyle name="样式 444" xfId="23"/>
+    <cellStyle name="样式 439" xfId="24"/>
+    <cellStyle name="样式 389" xfId="25"/>
+    <cellStyle name="样式 394" xfId="26"/>
+    <cellStyle name="千位分隔" xfId="27" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40"/>
+    <cellStyle name="样式 118" xfId="29"/>
+    <cellStyle name="样式 123" xfId="30"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8"/>
+    <cellStyle name="百分比" xfId="32" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="34"/>
+    <cellStyle name="注释" xfId="35" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="36" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="37" builtinId="19"/>
+    <cellStyle name="样式 296" xfId="38"/>
+    <cellStyle name="样式 346" xfId="39"/>
+    <cellStyle name="样式 351" xfId="40"/>
+    <cellStyle name="样式 401" xfId="41"/>
+    <cellStyle name="警告文本" xfId="42" builtinId="11"/>
+    <cellStyle name="标题" xfId="43" builtinId="15"/>
+    <cellStyle name="样式 188" xfId="44"/>
+    <cellStyle name="样式 193" xfId="45"/>
+    <cellStyle name="样式 238" xfId="46"/>
+    <cellStyle name="样式 243" xfId="47"/>
+    <cellStyle name="常规 12" xfId="48"/>
+    <cellStyle name="解释性文本" xfId="49" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="50" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="51" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="52" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="53" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="54" builtinId="44"/>
+    <cellStyle name="输出" xfId="55" builtinId="21"/>
+    <cellStyle name="常规 85" xfId="56"/>
+    <cellStyle name="常规 90" xfId="57"/>
+    <cellStyle name="常规 26" xfId="58"/>
+    <cellStyle name="常规 31" xfId="59"/>
+    <cellStyle name="计算" xfId="60" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="61" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="62" builtinId="50"/>
+    <cellStyle name="样式 265" xfId="63"/>
+    <cellStyle name="样式 270" xfId="64"/>
+    <cellStyle name="样式 315" xfId="65"/>
+    <cellStyle name="样式 320" xfId="66"/>
+    <cellStyle name="强调文字颜色 2" xfId="67" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="68" builtinId="24"/>
+    <cellStyle name="汇总" xfId="69" builtinId="25"/>
+    <cellStyle name="好" xfId="70" builtinId="26"/>
+    <cellStyle name="常规 16" xfId="71"/>
+    <cellStyle name="常规 21" xfId="72"/>
+    <cellStyle name="适中" xfId="73" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="74" builtinId="46"/>
+    <cellStyle name="样式 259" xfId="75"/>
+    <cellStyle name="样式 264" xfId="76"/>
+    <cellStyle name="样式 309" xfId="77"/>
+    <cellStyle name="样式 314" xfId="78"/>
+    <cellStyle name="强调文字颜色 1" xfId="79" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="80" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="81" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="82" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="83" builtinId="35"/>
+    <cellStyle name="样式 266" xfId="84"/>
+    <cellStyle name="样式 271" xfId="85"/>
+    <cellStyle name="样式 316" xfId="86"/>
+    <cellStyle name="样式 321" xfId="87"/>
+    <cellStyle name="强调文字颜色 3" xfId="88" builtinId="37"/>
+    <cellStyle name="样式 267" xfId="89"/>
+    <cellStyle name="样式 272" xfId="90"/>
+    <cellStyle name="样式 317" xfId="91"/>
+    <cellStyle name="样式 322" xfId="92"/>
+    <cellStyle name="强调文字颜色 4" xfId="93" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="94" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="95" builtinId="43"/>
+    <cellStyle name="样式 268" xfId="96"/>
+    <cellStyle name="样式 273" xfId="97"/>
+    <cellStyle name="样式 318" xfId="98"/>
+    <cellStyle name="样式 323" xfId="99"/>
+    <cellStyle name="强调文字颜色 5" xfId="100" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="101"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="102" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="103" builtinId="48"/>
+    <cellStyle name="样式 269" xfId="104"/>
+    <cellStyle name="样式 274" xfId="105"/>
+    <cellStyle name="样式 319" xfId="106"/>
+    <cellStyle name="样式 324" xfId="107"/>
+    <cellStyle name="强调文字颜色 6" xfId="108" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="109"/>
+    <cellStyle name="常规 10" xfId="110"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="111" builtinId="51"/>
+    <cellStyle name="常规 2 10" xfId="112"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="113" builtinId="52"/>
+    <cellStyle name="常规 11" xfId="114"/>
+    <cellStyle name="常规 13" xfId="115"/>
+    <cellStyle name="常规 14" xfId="116"/>
+    <cellStyle name="常规 15" xfId="117"/>
+    <cellStyle name="常规 20" xfId="118"/>
+    <cellStyle name="常规 17" xfId="119"/>
+    <cellStyle name="常规 22" xfId="120"/>
+    <cellStyle name="常规 18" xfId="121"/>
+    <cellStyle name="常规 23" xfId="122"/>
+    <cellStyle name="常规 19" xfId="123"/>
+    <cellStyle name="常规 24" xfId="124"/>
+    <cellStyle name="常规 2" xfId="125"/>
+    <cellStyle name="常规 2 12" xfId="126"/>
+    <cellStyle name="常规 2 4" xfId="127"/>
+    <cellStyle name="常规 2 5" xfId="128"/>
+    <cellStyle name="常规 2 6" xfId="129"/>
+    <cellStyle name="常规 2 7" xfId="130"/>
+    <cellStyle name="常规 2 8" xfId="131"/>
+    <cellStyle name="常规 2 9" xfId="132"/>
+    <cellStyle name="常规 25" xfId="133"/>
+    <cellStyle name="常规 30" xfId="134"/>
+    <cellStyle name="常规 27" xfId="135"/>
+    <cellStyle name="常规 32" xfId="136"/>
+    <cellStyle name="常规 28" xfId="137"/>
+    <cellStyle name="常规 33" xfId="138"/>
+    <cellStyle name="常规 29" xfId="139"/>
+    <cellStyle name="常规 34" xfId="140"/>
+    <cellStyle name="常规 3" xfId="141"/>
+    <cellStyle name="常规 35" xfId="142"/>
+    <cellStyle name="常规 40" xfId="143"/>
+    <cellStyle name="常规 36" xfId="144"/>
+    <cellStyle name="常规 41" xfId="145"/>
+    <cellStyle name="常规 37" xfId="146"/>
+    <cellStyle name="常规 42" xfId="147"/>
+    <cellStyle name="常规 38" xfId="148"/>
+    <cellStyle name="常规 43" xfId="149"/>
+    <cellStyle name="常规 4" xfId="150"/>
+    <cellStyle name="常规 45" xfId="151"/>
+    <cellStyle name="常规 50" xfId="152"/>
+    <cellStyle name="常规 46" xfId="153"/>
+    <cellStyle name="常规 51" xfId="154"/>
+    <cellStyle name="常规 47" xfId="155"/>
+    <cellStyle name="常规 52" xfId="156"/>
+    <cellStyle name="常规 48" xfId="157"/>
+    <cellStyle name="常规 53" xfId="158"/>
+    <cellStyle name="常规 49" xfId="159"/>
+    <cellStyle name="常规 54" xfId="160"/>
+    <cellStyle name="常规 5" xfId="161"/>
+    <cellStyle name="常规 55" xfId="162"/>
+    <cellStyle name="常规 60" xfId="163"/>
+    <cellStyle name="常规 56" xfId="164"/>
+    <cellStyle name="常规 61" xfId="165"/>
+    <cellStyle name="常规 57" xfId="166"/>
+    <cellStyle name="常规 62" xfId="167"/>
+    <cellStyle name="常规 58" xfId="168"/>
+    <cellStyle name="常规 63" xfId="169"/>
+    <cellStyle name="常规 59" xfId="170"/>
+    <cellStyle name="常规 64" xfId="171"/>
+    <cellStyle name="常规 65" xfId="172"/>
+    <cellStyle name="常规 70" xfId="173"/>
+    <cellStyle name="常规 66" xfId="174"/>
+    <cellStyle name="常规 71" xfId="175"/>
+    <cellStyle name="常规 67" xfId="176"/>
+    <cellStyle name="常规 72" xfId="177"/>
+    <cellStyle name="常规 68" xfId="178"/>
+    <cellStyle name="常规 73" xfId="179"/>
+    <cellStyle name="常规 69" xfId="180"/>
+    <cellStyle name="常规 74" xfId="181"/>
+    <cellStyle name="常规 7" xfId="182"/>
+    <cellStyle name="常规 75" xfId="183"/>
+    <cellStyle name="常规 80" xfId="184"/>
+    <cellStyle name="常规 76" xfId="185"/>
+    <cellStyle name="常规 81" xfId="186"/>
+    <cellStyle name="常规 77" xfId="187"/>
+    <cellStyle name="常规 82" xfId="188"/>
+    <cellStyle name="常规 78" xfId="189"/>
+    <cellStyle name="常规 83" xfId="190"/>
+    <cellStyle name="常规 79" xfId="191"/>
+    <cellStyle name="常规 84" xfId="192"/>
+    <cellStyle name="常规 8" xfId="193"/>
+    <cellStyle name="常规 86" xfId="194"/>
+    <cellStyle name="常规 91" xfId="195"/>
+    <cellStyle name="常规 87" xfId="196"/>
+    <cellStyle name="常规 92" xfId="197"/>
+    <cellStyle name="常规 88" xfId="198"/>
+    <cellStyle name="常规 93" xfId="199"/>
+    <cellStyle name="常规 89" xfId="200"/>
+    <cellStyle name="常规 94" xfId="201"/>
+    <cellStyle name="常规 9" xfId="202"/>
+    <cellStyle name="常规 95" xfId="203"/>
+    <cellStyle name="样式 1" xfId="204"/>
+    <cellStyle name="样式 359" xfId="205"/>
+    <cellStyle name="样式 364" xfId="206"/>
+    <cellStyle name="样式 409" xfId="207"/>
+    <cellStyle name="样式 414" xfId="208"/>
+    <cellStyle name="样式 10" xfId="209"/>
+    <cellStyle name="样式 100" xfId="210"/>
+    <cellStyle name="样式 101" xfId="211"/>
+    <cellStyle name="样式 102" xfId="212"/>
+    <cellStyle name="样式 103" xfId="213"/>
+    <cellStyle name="样式 104" xfId="214"/>
+    <cellStyle name="样式 105" xfId="215"/>
+    <cellStyle name="样式 110" xfId="216"/>
+    <cellStyle name="样式 106" xfId="217"/>
+    <cellStyle name="样式 111" xfId="218"/>
+    <cellStyle name="样式 107" xfId="219"/>
+    <cellStyle name="样式 112" xfId="220"/>
+    <cellStyle name="样式 108" xfId="221"/>
+    <cellStyle name="样式 113" xfId="222"/>
+    <cellStyle name="样式 109" xfId="223"/>
+    <cellStyle name="样式 114" xfId="224"/>
+    <cellStyle name="样式 365" xfId="225"/>
+    <cellStyle name="样式 370" xfId="226"/>
+    <cellStyle name="样式 415" xfId="227"/>
+    <cellStyle name="样式 420" xfId="228"/>
+    <cellStyle name="样式 11" xfId="229"/>
+    <cellStyle name="样式 115" xfId="230"/>
+    <cellStyle name="样式 120" xfId="231"/>
+    <cellStyle name="样式 116" xfId="232"/>
+    <cellStyle name="样式 121" xfId="233"/>
+    <cellStyle name="样式 117" xfId="234"/>
+    <cellStyle name="样式 122" xfId="235"/>
+    <cellStyle name="样式 119" xfId="236"/>
+    <cellStyle name="样式 124" xfId="237"/>
+    <cellStyle name="样式 366" xfId="238"/>
+    <cellStyle name="样式 371" xfId="239"/>
+    <cellStyle name="样式 416" xfId="240"/>
+    <cellStyle name="样式 421" xfId="241"/>
+    <cellStyle name="样式 12" xfId="242"/>
+    <cellStyle name="样式 125" xfId="243"/>
+    <cellStyle name="样式 130" xfId="244"/>
+    <cellStyle name="样式 126" xfId="245"/>
+    <cellStyle name="样式 131" xfId="246"/>
+    <cellStyle name="样式 127" xfId="247"/>
+    <cellStyle name="样式 132" xfId="248"/>
+    <cellStyle name="样式 128" xfId="249"/>
+    <cellStyle name="样式 133" xfId="250"/>
+    <cellStyle name="样式 129" xfId="251"/>
+    <cellStyle name="样式 134" xfId="252"/>
+    <cellStyle name="样式 422" xfId="253"/>
+    <cellStyle name="样式 367" xfId="254"/>
+    <cellStyle name="样式 372" xfId="255"/>
+    <cellStyle name="样式 417" xfId="256"/>
+    <cellStyle name="样式 13" xfId="257"/>
+    <cellStyle name="样式 135" xfId="258"/>
+    <cellStyle name="样式 140" xfId="259"/>
+    <cellStyle name="样式 136" xfId="260"/>
+    <cellStyle name="样式 141" xfId="261"/>
+    <cellStyle name="样式 137" xfId="262"/>
+    <cellStyle name="样式 142" xfId="263"/>
+    <cellStyle name="样式 138" xfId="264"/>
+    <cellStyle name="样式 143" xfId="265"/>
+    <cellStyle name="样式 139" xfId="266"/>
+    <cellStyle name="样式 144" xfId="267"/>
+    <cellStyle name="样式 423" xfId="268"/>
+    <cellStyle name="样式 368" xfId="269"/>
+    <cellStyle name="样式 373" xfId="270"/>
+    <cellStyle name="样式 418" xfId="271"/>
+    <cellStyle name="样式 14" xfId="272"/>
+    <cellStyle name="样式 145" xfId="273"/>
+    <cellStyle name="样式 150" xfId="274"/>
+    <cellStyle name="样式 200" xfId="275"/>
+    <cellStyle name="样式 146" xfId="276"/>
+    <cellStyle name="样式 151" xfId="277"/>
+    <cellStyle name="样式 201" xfId="278"/>
+    <cellStyle name="样式 147" xfId="279"/>
+    <cellStyle name="样式 152" xfId="280"/>
+    <cellStyle name="样式 202" xfId="281"/>
+    <cellStyle name="样式 148" xfId="282"/>
+    <cellStyle name="样式 153" xfId="283"/>
+    <cellStyle name="样式 203" xfId="284"/>
+    <cellStyle name="样式 149" xfId="285"/>
+    <cellStyle name="样式 154" xfId="286"/>
+    <cellStyle name="样式 204" xfId="287"/>
+    <cellStyle name="样式 155" xfId="288"/>
+    <cellStyle name="样式 160" xfId="289"/>
+    <cellStyle name="样式 205" xfId="290"/>
+    <cellStyle name="样式 210" xfId="291"/>
+    <cellStyle name="样式 156" xfId="292"/>
+    <cellStyle name="样式 161" xfId="293"/>
+    <cellStyle name="样式 206" xfId="294"/>
+    <cellStyle name="样式 211" xfId="295"/>
+    <cellStyle name="样式 157" xfId="296"/>
+    <cellStyle name="样式 162" xfId="297"/>
+    <cellStyle name="样式 207" xfId="298"/>
+    <cellStyle name="样式 212" xfId="299"/>
+    <cellStyle name="样式 158" xfId="300"/>
+    <cellStyle name="样式 163" xfId="301"/>
+    <cellStyle name="样式 208" xfId="302"/>
+    <cellStyle name="样式 213" xfId="303"/>
+    <cellStyle name="样式 159" xfId="304"/>
+    <cellStyle name="样式 164" xfId="305"/>
+    <cellStyle name="样式 209" xfId="306"/>
+    <cellStyle name="样式 214" xfId="307"/>
+    <cellStyle name="样式 430" xfId="308"/>
+    <cellStyle name="样式 425" xfId="309"/>
+    <cellStyle name="样式 375" xfId="310"/>
+    <cellStyle name="样式 380" xfId="311"/>
+    <cellStyle name="样式 16" xfId="312"/>
+    <cellStyle name="样式 21" xfId="313"/>
+    <cellStyle name="样式 165" xfId="314"/>
+    <cellStyle name="样式 170" xfId="315"/>
+    <cellStyle name="样式 215" xfId="316"/>
+    <cellStyle name="样式 220" xfId="317"/>
+    <cellStyle name="样式 166" xfId="318"/>
+    <cellStyle name="样式 171" xfId="319"/>
+    <cellStyle name="样式 216" xfId="320"/>
+    <cellStyle name="样式 221" xfId="321"/>
+    <cellStyle name="样式 167" xfId="322"/>
+    <cellStyle name="样式 172" xfId="323"/>
+    <cellStyle name="样式 217" xfId="324"/>
+    <cellStyle name="样式 222" xfId="325"/>
+    <cellStyle name="样式 168" xfId="326"/>
+    <cellStyle name="样式 173" xfId="327"/>
+    <cellStyle name="样式 218" xfId="328"/>
+    <cellStyle name="样式 223" xfId="329"/>
+    <cellStyle name="样式 169" xfId="330"/>
+    <cellStyle name="样式 174" xfId="331"/>
+    <cellStyle name="样式 219" xfId="332"/>
+    <cellStyle name="样式 224" xfId="333"/>
+    <cellStyle name="样式 431" xfId="334"/>
+    <cellStyle name="样式 426" xfId="335"/>
+    <cellStyle name="样式 376" xfId="336"/>
+    <cellStyle name="样式 381" xfId="337"/>
+    <cellStyle name="样式 17" xfId="338"/>
+    <cellStyle name="样式 22" xfId="339"/>
+    <cellStyle name="样式 175" xfId="340"/>
+    <cellStyle name="样式 180" xfId="341"/>
+    <cellStyle name="样式 225" xfId="342"/>
+    <cellStyle name="样式 230" xfId="343"/>
+    <cellStyle name="样式 176" xfId="344"/>
+    <cellStyle name="样式 181" xfId="345"/>
+    <cellStyle name="样式 226" xfId="346"/>
+    <cellStyle name="样式 231" xfId="347"/>
+    <cellStyle name="样式 177" xfId="348"/>
+    <cellStyle name="样式 182" xfId="349"/>
+    <cellStyle name="样式 227" xfId="350"/>
+    <cellStyle name="样式 232" xfId="351"/>
+    <cellStyle name="样式 178" xfId="352"/>
+    <cellStyle name="样式 183" xfId="353"/>
+    <cellStyle name="样式 228" xfId="354"/>
+    <cellStyle name="样式 233" xfId="355"/>
+    <cellStyle name="样式 179" xfId="356"/>
+    <cellStyle name="样式 184" xfId="357"/>
+    <cellStyle name="样式 229" xfId="358"/>
+    <cellStyle name="样式 234" xfId="359"/>
+    <cellStyle name="样式 432" xfId="360"/>
+    <cellStyle name="样式 427" xfId="361"/>
+    <cellStyle name="样式 377" xfId="362"/>
+    <cellStyle name="样式 382" xfId="363"/>
+    <cellStyle name="样式 18" xfId="364"/>
+    <cellStyle name="样式 23" xfId="365"/>
+    <cellStyle name="样式 185" xfId="366"/>
+    <cellStyle name="样式 190" xfId="367"/>
+    <cellStyle name="样式 235" xfId="368"/>
+    <cellStyle name="样式 240" xfId="369"/>
+    <cellStyle name="样式 186" xfId="370"/>
+    <cellStyle name="样式 191" xfId="371"/>
+    <cellStyle name="样式 236" xfId="372"/>
+    <cellStyle name="样式 241" xfId="373"/>
+    <cellStyle name="样式 187" xfId="374"/>
+    <cellStyle name="样式 192" xfId="375"/>
+    <cellStyle name="样式 237" xfId="376"/>
+    <cellStyle name="样式 242" xfId="377"/>
+    <cellStyle name="样式 189" xfId="378"/>
+    <cellStyle name="样式 194" xfId="379"/>
+    <cellStyle name="样式 239" xfId="380"/>
+    <cellStyle name="样式 244" xfId="381"/>
+    <cellStyle name="样式 433" xfId="382"/>
+    <cellStyle name="样式 428" xfId="383"/>
+    <cellStyle name="样式 378" xfId="384"/>
+    <cellStyle name="样式 383" xfId="385"/>
+    <cellStyle name="样式 19" xfId="386"/>
+    <cellStyle name="样式 24" xfId="387"/>
+    <cellStyle name="样式 195" xfId="388"/>
+    <cellStyle name="样式 245" xfId="389"/>
+    <cellStyle name="样式 250" xfId="390"/>
+    <cellStyle name="样式 300" xfId="391"/>
+    <cellStyle name="样式 196" xfId="392"/>
+    <cellStyle name="样式 246" xfId="393"/>
+    <cellStyle name="样式 251" xfId="394"/>
+    <cellStyle name="样式 301" xfId="395"/>
+    <cellStyle name="样式 197" xfId="396"/>
+    <cellStyle name="样式 247" xfId="397"/>
+    <cellStyle name="样式 252" xfId="398"/>
+    <cellStyle name="样式 302" xfId="399"/>
+    <cellStyle name="样式 198" xfId="400"/>
+    <cellStyle name="样式 248" xfId="401"/>
+    <cellStyle name="样式 253" xfId="402"/>
+    <cellStyle name="样式 303" xfId="403"/>
+    <cellStyle name="样式 199" xfId="404"/>
+    <cellStyle name="样式 249" xfId="405"/>
+    <cellStyle name="样式 254" xfId="406"/>
+    <cellStyle name="样式 304" xfId="407"/>
+    <cellStyle name="样式 2" xfId="408"/>
+    <cellStyle name="样式 434" xfId="409"/>
+    <cellStyle name="样式 429" xfId="410"/>
+    <cellStyle name="样式 379" xfId="411"/>
+    <cellStyle name="样式 384" xfId="412"/>
+    <cellStyle name="样式 25" xfId="413"/>
+    <cellStyle name="样式 30" xfId="414"/>
+    <cellStyle name="样式 255" xfId="415"/>
+    <cellStyle name="样式 260" xfId="416"/>
+    <cellStyle name="样式 305" xfId="417"/>
+    <cellStyle name="样式 310" xfId="418"/>
+    <cellStyle name="样式 256" xfId="419"/>
+    <cellStyle name="样式 261" xfId="420"/>
+    <cellStyle name="样式 306" xfId="421"/>
+    <cellStyle name="样式 311" xfId="422"/>
+    <cellStyle name="样式 257" xfId="423"/>
+    <cellStyle name="样式 262" xfId="424"/>
+    <cellStyle name="样式 307" xfId="425"/>
+    <cellStyle name="样式 312" xfId="426"/>
+    <cellStyle name="样式 258" xfId="427"/>
+    <cellStyle name="样式 263" xfId="428"/>
+    <cellStyle name="样式 308" xfId="429"/>
+    <cellStyle name="样式 313" xfId="430"/>
+    <cellStyle name="样式 440" xfId="431"/>
+    <cellStyle name="样式 435" xfId="432"/>
+    <cellStyle name="样式 385" xfId="433"/>
+    <cellStyle name="样式 390" xfId="434"/>
+    <cellStyle name="样式 26" xfId="435"/>
+    <cellStyle name="样式 31" xfId="436"/>
+    <cellStyle name="样式 441" xfId="437"/>
+    <cellStyle name="样式 436" xfId="438"/>
+    <cellStyle name="样式 386" xfId="439"/>
+    <cellStyle name="样式 391" xfId="440"/>
+    <cellStyle name="样式 27" xfId="441"/>
+    <cellStyle name="样式 32" xfId="442"/>
+    <cellStyle name="样式 275" xfId="443"/>
+    <cellStyle name="样式 280" xfId="444"/>
+    <cellStyle name="样式 325" xfId="445"/>
+    <cellStyle name="样式 330" xfId="446"/>
+    <cellStyle name="样式 276" xfId="447"/>
+    <cellStyle name="样式 281" xfId="448"/>
+    <cellStyle name="样式 326" xfId="449"/>
+    <cellStyle name="样式 331" xfId="450"/>
+    <cellStyle name="样式 277" xfId="451"/>
+    <cellStyle name="样式 282" xfId="452"/>
+    <cellStyle name="样式 327" xfId="453"/>
+    <cellStyle name="样式 332" xfId="454"/>
+    <cellStyle name="样式 278" xfId="455"/>
+    <cellStyle name="样式 283" xfId="456"/>
+    <cellStyle name="样式 328" xfId="457"/>
+    <cellStyle name="样式 333" xfId="458"/>
+    <cellStyle name="样式 279" xfId="459"/>
+    <cellStyle name="样式 284" xfId="460"/>
+    <cellStyle name="样式 329" xfId="461"/>
+    <cellStyle name="样式 334" xfId="462"/>
+    <cellStyle name="样式 442" xfId="463"/>
+    <cellStyle name="样式 437" xfId="464"/>
+    <cellStyle name="样式 387" xfId="465"/>
+    <cellStyle name="样式 392" xfId="466"/>
+    <cellStyle name="样式 28" xfId="467"/>
+    <cellStyle name="样式 33" xfId="468"/>
+    <cellStyle name="样式 285" xfId="469"/>
+    <cellStyle name="样式 290" xfId="470"/>
+    <cellStyle name="样式 335" xfId="471"/>
+    <cellStyle name="样式 340" xfId="472"/>
+    <cellStyle name="样式 286" xfId="473"/>
+    <cellStyle name="样式 291" xfId="474"/>
+    <cellStyle name="样式 336" xfId="475"/>
+    <cellStyle name="样式 341" xfId="476"/>
+    <cellStyle name="样式 287" xfId="477"/>
+    <cellStyle name="样式 292" xfId="478"/>
+    <cellStyle name="样式 337" xfId="479"/>
+    <cellStyle name="样式 342" xfId="480"/>
+    <cellStyle name="样式 288" xfId="481"/>
+    <cellStyle name="样式 293" xfId="482"/>
+    <cellStyle name="样式 338" xfId="483"/>
+    <cellStyle name="样式 343" xfId="484"/>
+    <cellStyle name="样式 289" xfId="485"/>
+    <cellStyle name="样式 294" xfId="486"/>
+    <cellStyle name="样式 339" xfId="487"/>
+    <cellStyle name="样式 344" xfId="488"/>
+    <cellStyle name="样式 443" xfId="489"/>
+    <cellStyle name="样式 438" xfId="490"/>
+    <cellStyle name="样式 388" xfId="491"/>
+    <cellStyle name="样式 393" xfId="492"/>
+    <cellStyle name="样式 29" xfId="493"/>
+    <cellStyle name="样式 34" xfId="494"/>
+    <cellStyle name="样式 295" xfId="495"/>
+    <cellStyle name="样式 345" xfId="496"/>
+    <cellStyle name="样式 350" xfId="497"/>
+    <cellStyle name="样式 400" xfId="498"/>
+    <cellStyle name="样式 297" xfId="499"/>
+    <cellStyle name="样式 347" xfId="500"/>
+    <cellStyle name="样式 352" xfId="501"/>
+    <cellStyle name="样式 402" xfId="502"/>
+    <cellStyle name="样式 298" xfId="503"/>
+    <cellStyle name="样式 348" xfId="504"/>
+    <cellStyle name="样式 353" xfId="505"/>
+    <cellStyle name="样式 403" xfId="506"/>
+    <cellStyle name="样式 299" xfId="507"/>
+    <cellStyle name="样式 349" xfId="508"/>
+    <cellStyle name="样式 354" xfId="509"/>
+    <cellStyle name="样式 404" xfId="510"/>
+    <cellStyle name="样式 3" xfId="511"/>
+    <cellStyle name="样式 355" xfId="512"/>
+    <cellStyle name="样式 360" xfId="513"/>
+    <cellStyle name="样式 405" xfId="514"/>
+    <cellStyle name="样式 410" xfId="515"/>
+    <cellStyle name="样式 357" xfId="516"/>
+    <cellStyle name="样式 362" xfId="517"/>
+    <cellStyle name="样式 407" xfId="518"/>
+    <cellStyle name="样式 412" xfId="519"/>
+    <cellStyle name="样式 358" xfId="520"/>
+    <cellStyle name="样式 363" xfId="521"/>
+    <cellStyle name="样式 408" xfId="522"/>
+    <cellStyle name="样式 413" xfId="523"/>
+    <cellStyle name="样式 36" xfId="524"/>
+    <cellStyle name="样式 41" xfId="525"/>
+    <cellStyle name="样式 450" xfId="526"/>
+    <cellStyle name="样式 445" xfId="527"/>
+    <cellStyle name="样式 395" xfId="528"/>
+    <cellStyle name="样式 37" xfId="529"/>
+    <cellStyle name="样式 42" xfId="530"/>
+    <cellStyle name="样式 451" xfId="531"/>
+    <cellStyle name="样式 446" xfId="532"/>
+    <cellStyle name="样式 396" xfId="533"/>
+    <cellStyle name="样式 452" xfId="534"/>
+    <cellStyle name="样式 447" xfId="535"/>
+    <cellStyle name="样式 397" xfId="536"/>
+    <cellStyle name="样式 43" xfId="537"/>
+    <cellStyle name="样式 38" xfId="538"/>
+    <cellStyle name="样式 453" xfId="539"/>
+    <cellStyle name="样式 448" xfId="540"/>
+    <cellStyle name="样式 398" xfId="541"/>
+    <cellStyle name="样式 44" xfId="542"/>
+    <cellStyle name="样式 39" xfId="543"/>
+    <cellStyle name="样式 454" xfId="544"/>
+    <cellStyle name="样式 449" xfId="545"/>
+    <cellStyle name="样式 399" xfId="546"/>
+    <cellStyle name="样式 4" xfId="547"/>
+    <cellStyle name="样式 50" xfId="548"/>
+    <cellStyle name="样式 45" xfId="549"/>
+    <cellStyle name="样式 455" xfId="550"/>
+    <cellStyle name="样式 456" xfId="551"/>
+    <cellStyle name="样式 51" xfId="552"/>
+    <cellStyle name="样式 46" xfId="553"/>
+    <cellStyle name="样式 52" xfId="554"/>
+    <cellStyle name="样式 47" xfId="555"/>
+    <cellStyle name="样式 53" xfId="556"/>
+    <cellStyle name="样式 48" xfId="557"/>
+    <cellStyle name="样式 54" xfId="558"/>
+    <cellStyle name="样式 49" xfId="559"/>
+    <cellStyle name="样式 5" xfId="560"/>
+    <cellStyle name="样式 60" xfId="561"/>
+    <cellStyle name="样式 55" xfId="562"/>
+    <cellStyle name="样式 61" xfId="563"/>
+    <cellStyle name="样式 56" xfId="564"/>
+    <cellStyle name="样式 62" xfId="565"/>
+    <cellStyle name="样式 57" xfId="566"/>
+    <cellStyle name="样式 63" xfId="567"/>
+    <cellStyle name="样式 58" xfId="568"/>
+    <cellStyle name="样式 64" xfId="569"/>
+    <cellStyle name="样式 59" xfId="570"/>
+    <cellStyle name="样式 6" xfId="571"/>
+    <cellStyle name="样式 70" xfId="572"/>
+    <cellStyle name="样式 65" xfId="573"/>
+    <cellStyle name="样式 71" xfId="574"/>
+    <cellStyle name="样式 66" xfId="575"/>
+    <cellStyle name="样式 72" xfId="576"/>
+    <cellStyle name="样式 67" xfId="577"/>
+    <cellStyle name="样式 73" xfId="578"/>
+    <cellStyle name="样式 68" xfId="579"/>
+    <cellStyle name="样式 74" xfId="580"/>
+    <cellStyle name="样式 69" xfId="581"/>
+    <cellStyle name="样式 7" xfId="582"/>
+    <cellStyle name="样式 80" xfId="583"/>
+    <cellStyle name="样式 75" xfId="584"/>
+    <cellStyle name="样式 81" xfId="585"/>
+    <cellStyle name="样式 76" xfId="586"/>
+    <cellStyle name="样式 82" xfId="587"/>
+    <cellStyle name="样式 77" xfId="588"/>
+    <cellStyle name="样式 83" xfId="589"/>
+    <cellStyle name="样式 78" xfId="590"/>
+    <cellStyle name="样式 84" xfId="591"/>
+    <cellStyle name="样式 79" xfId="592"/>
+    <cellStyle name="样式 8" xfId="593"/>
+    <cellStyle name="样式 90" xfId="594"/>
+    <cellStyle name="样式 85" xfId="595"/>
+    <cellStyle name="样式 91" xfId="596"/>
+    <cellStyle name="样式 86" xfId="597"/>
+    <cellStyle name="样式 92" xfId="598"/>
+    <cellStyle name="样式 87" xfId="599"/>
+    <cellStyle name="样式 93" xfId="600"/>
+    <cellStyle name="样式 88" xfId="601"/>
+    <cellStyle name="样式 94" xfId="602"/>
+    <cellStyle name="样式 89" xfId="603"/>
+    <cellStyle name="样式 9" xfId="604"/>
+    <cellStyle name="样式 95" xfId="605"/>
+    <cellStyle name="样式 96" xfId="606"/>
+    <cellStyle name="样式 97" xfId="607"/>
+    <cellStyle name="样式 98" xfId="608"/>
+    <cellStyle name="样式 99" xfId="609"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color indexed="10"/>
+        <color indexed="52"/>
       </font>
     </dxf>
     <dxf>
@@ -3709,7 +4232,7 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color indexed="52"/>
+        <color indexed="10"/>
       </font>
     </dxf>
   </dxfs>
@@ -3739,23 +4262,24 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" vertOverflow="ellipsis" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN"/>
               <a:t>用例执行率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3794,6 +4318,7 @@
             </a:solidFill>
             <a:effectLst/>
           </c:spPr>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3806,11 +4331,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1459-4BE4-B031-80FE4964CF44}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3824,11 +4344,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1459-4BE4-B031-80FE4964CF44}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3842,21 +4357,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1459-4BE4-B031-80FE4964CF44}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1899196194225723E-2"/>
-                  <c:y val="3.2969212181810606E-2"/>
+                  <c:x val="0.0318991961942257"/>
+                  <c:y val="0.0329692121818106"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3865,13 +4376,19 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -3881,9 +4398,16 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3892,13 +4416,19 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -3908,15 +4438,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12369996719160103"/>
-                  <c:y val="7.2650918635170647E-2"/>
+                  <c:x val="-0.123699967191601"/>
+                  <c:y val="0.0726509186351706"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3925,13 +4459,19 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                      <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -3941,6 +4481,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3950,20 +4495,19 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -3974,8 +4518,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4002,25 +4550,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0%">
-                  <c:v>0.92307692307692313</c:v>
+                <c:pt idx="2" c:formatCode="0%">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1459-4BE4-B031-80FE4964CF44}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4048,16 +4590,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4068,16 +4609,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4088,16 +4628,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4115,16 +4654,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4141,6 +4679,7 @@
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4153,12 +4692,11 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4214,22 +4752,28 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>功能测试用例!$B$9:$D$10</c:f>
-              <c:strCache>
+              <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>通过</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>未通过</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>未执行</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>通过</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>未通过</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>未执行</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4249,11 +4793,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA97-46C1-BD48-7C0233A0B81D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4279,22 +4818,28 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>功能测试用例!$B$9:$D$10</c:f>
-              <c:strCache>
+              <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>通过</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>未通过</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>未执行</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>通过</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>未通过</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>未执行</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4303,22 +4848,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA97-46C1-BD48-7C0233A0B81D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4344,22 +4884,28 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>功能测试用例!$B$9:$D$10</c:f>
-              <c:strCache>
+              <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>通过</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>未通过</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>未执行</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>通过</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>未通过</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>未执行</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4379,11 +4925,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA97-46C1-BD48-7C0233A0B81D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4410,11 +4951,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4423,16 +4965,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102841728"/>
@@ -4441,7 +4982,6 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4453,11 +4993,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4468,11 +5009,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4481,16 +5023,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102840192"/>
@@ -4516,16 +5057,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4536,16 +5076,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4556,16 +5095,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -4583,16 +5121,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4609,6 +5146,7 @@
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4621,12 +5159,11 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4638,7 +5175,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -4652,20 +5189,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21647" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F540000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21647" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3609975" y="1162050"/>
+        <a:ext cx="2438400" cy="1200150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4688,20 +5219,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21648" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090540000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21648" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6229350" y="1152525"/>
+        <a:ext cx="3590925" cy="1219200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5037,12 +5562,12 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5051,249 +5576,248 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="24" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="24"/>
+    <col min="1" max="1" width="7.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="72" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="52" t="s">
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="55" t="s">
+    <row r="6" s="34" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="B7" s="77" t="s">
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="B8" s="77" t="s">
+    <row r="8" customHeight="1" spans="2:8">
+      <c r="B8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="B9" s="77" t="s">
+    <row r="9" customHeight="1" spans="2:8">
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="D10" s="57" t="s">
+    <row r="10" customHeight="1" spans="4:8">
+      <c r="D10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="63" t="s">
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="B13" s="24" t="s">
+    <row r="13" customHeight="1" spans="2:2">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="32" t="s">
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="33" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="69" t="s">
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="42"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="83"/>
     </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="43"/>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="84"/>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="43"/>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="84"/>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="44"/>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A2:I3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9">
       <formula1>"草稿,已发布,修改中"</formula1>
@@ -5306,861 +5830,862 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="25.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="25.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="84"/>
+    <row r="1" ht="21" customHeight="1" spans="1:10">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="9"/>
+    <row r="3" s="1" customFormat="1" ht="11.25" customHeight="1" spans="1:10">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:10">
+      <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <f>C14/B7</f>
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="18">
         <f>B14/B7</f>
         <v>1</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="9"/>
+    <row r="5" s="1" customFormat="1" ht="10.5" customHeight="1" spans="1:10">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:10">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:10">
+      <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="19">
         <f>SUM(B11:B13,C11:C13)</f>
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20">
         <f>SUM(B14:D14)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="18">
         <f>B7/(C7)</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="9"/>
+    <row r="8" s="1" customFormat="1" ht="11.25" customHeight="1" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="85" t="s">
+    <row r="9" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="19">
         <f>COUNTIFS(H15:H43,"高",I15:I43,"通过")</f>
         <v>9</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="21">
         <f>COUNTIFS(H15:H43,"高",I15:I43,"未通过")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="21">
         <f>COUNTIFS(H15:H43,"高",I15:I43,"未执行")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="19">
         <f>COUNTIFS(H15:H43,"中",I15:I43,"通过")</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
         <f>COUNTIFS(H15:H43,"中",I15:I43,"未通过")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="21">
         <f>COUNTIFS(H15:H43,"中",I15:I43,"未执行")</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="19">
         <f>COUNTIFS(H15:H43,"低",I15:I43,"通过")</f>
         <v>1</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="21">
         <f>COUNTIFS(H15:H43,"低",I15:I43,"未通过")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="21">
         <f>COUNTIFS(H15:H43,"低",I15:I43,"未执行")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="19">
         <f>SUM(B11:B13)</f>
-        <v>12</v>
-      </c>
-      <c r="C14" s="17">
+        <v>13</v>
+      </c>
+      <c r="C14" s="21">
         <f>SUM(C11:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="21">
         <f>SUM(D11:D13)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="9"/>
+    <row r="15" s="2" customFormat="1" ht="11.25" customHeight="1" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" s="50" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="86" t="s">
+    <row r="16" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
+      <c r="A16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="33.75" outlineLevel="1" spans="1:10">
+      <c r="A17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="33.75" outlineLevel="1" spans="1:10">
+      <c r="A18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="56.25" outlineLevel="1" spans="1:10">
+      <c r="A19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="67.5" outlineLevel="1" spans="1:10">
+      <c r="A20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="78.75" outlineLevel="1" spans="1:10">
+      <c r="A21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="90" outlineLevel="1" spans="1:10">
+      <c r="A22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="90" outlineLevel="1" spans="1:10">
+      <c r="A23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="67.5" outlineLevel="1" spans="1:10">
+      <c r="A24" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="45" outlineLevel="1" spans="1:10">
+      <c r="A25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="33.75" outlineLevel="1" spans="1:10">
+      <c r="A26" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="33.75" outlineLevel="1" spans="1:10">
+      <c r="A27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="33"/>
     </row>
-    <row r="17" spans="1:10" s="49" customFormat="1" ht="33.75" outlineLevel="1">
-      <c r="A17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46" t="s">
+    <row r="28" s="4" customFormat="1" ht="33.75" outlineLevel="1" spans="1:10">
+      <c r="A28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="48" t="s">
-        <v>61</v>
-      </c>
+      <c r="J28" s="33"/>
     </row>
-    <row r="18" spans="1:10" s="49" customFormat="1" ht="33.75" outlineLevel="1">
-      <c r="A18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="47" t="s">
+    <row r="29" s="4" customFormat="1" ht="24" outlineLevel="1" spans="1:10">
+      <c r="A29" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="48"/>
+      <c r="J29" s="33" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" s="49" customFormat="1" ht="56.25" outlineLevel="1">
-      <c r="A19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>60</v>
-      </c>
+    <row r="30" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
     </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" ht="67.5" outlineLevel="1">
-      <c r="A20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>69</v>
-      </c>
+    <row r="31" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
     </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>73</v>
-      </c>
+    <row r="32" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
     </row>
-    <row r="22" spans="1:10" s="49" customFormat="1" ht="90" outlineLevel="1">
-      <c r="A22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="48"/>
+    <row r="33" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
-    <row r="23" spans="1:10" s="49" customFormat="1" ht="90" outlineLevel="1">
-      <c r="A23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="48"/>
+    <row r="34" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
     </row>
-    <row r="24" spans="1:10" s="49" customFormat="1" ht="67.5" outlineLevel="1">
-      <c r="A24" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="48"/>
+    <row r="35" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
-    <row r="25" spans="1:10" s="49" customFormat="1" ht="45" outlineLevel="1">
-      <c r="A25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="48"/>
+    <row r="36" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
     </row>
-    <row r="26" spans="1:10" s="49" customFormat="1" ht="33.75" outlineLevel="1">
-      <c r="A26" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="48"/>
+    <row r="37" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
     </row>
-    <row r="27" spans="1:10" s="49" customFormat="1" ht="33.75" outlineLevel="1">
-      <c r="A27" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="48"/>
+    <row r="38" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
-    <row r="28" spans="1:10" s="49" customFormat="1" ht="33.75" outlineLevel="1">
-      <c r="A28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="48"/>
+    <row r="39" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
-    <row r="29" spans="1:10" s="49" customFormat="1" ht="24" outlineLevel="1">
-      <c r="A29" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>102</v>
-      </c>
+    <row r="40" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
+    <row r="41" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
     </row>
-    <row r="31" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="48"/>
+    <row r="42" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="48"/>
+    <row r="43" s="4" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
+    <row r="44" spans="1:1">
+      <c r="A44" s="29"/>
     </row>
-    <row r="34" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" s="49" customFormat="1" outlineLevel="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:1">
+      <c r="A45" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K43"/>
+  <autoFilter ref="A2:K43">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A16:J16"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I3:I15 I17:I43">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未执行"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未通过"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6168,19 +6693,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"未执行,通过,未通过"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H43">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I15 I17:I43">
       <formula1>"通过,未通过,未执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H43">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" scale="28" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" scale="28" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;Bwbj 机密 &amp;B&amp;C&amp;D&amp;R 第 &amp;P 页</oddHeader>
     <oddFooter>&amp;L&amp;Bwbj 机密 &amp;B&amp;C&amp;D&amp;R 第 &amp;P 页</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>